--- a/Data/parameters_06212023.xlsx
+++ b/Data/parameters_06212023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaya\Box\AA_Sigal_Documents\Climate - Health\Modeling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D72FE2-70DA-43D2-92F6-10BDD7D5969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71A045-F9AD-4C36-B6C0-8B003B885802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F8C742B-0CC8-45EF-A544-2F8CB402B937}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>array</t>
   </si>
   <si>
-    <t>"Data/Asthma/Transition probabilities/transition data _ calibrated.xlsx"</t>
-  </si>
-  <si>
     <t>v_asthma_costs</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>heatlh state utillities for each asthma control state</t>
+  </si>
+  <si>
+    <t>"Data/Asthma/Transition probabilities/transition data _ weekly.xlsx"</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -265,7 +265,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EF06A4-6F93-48E7-B90D-2664BC20196B}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,15 +865,15 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -882,15 +882,15 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -899,15 +899,15 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
